--- a/Excel_luban/Datas/SoundConfig.xlsx
+++ b/Excel_luban/Datas/SoundConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27705" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="SoundConfig" sheetId="3" r:id="rId1"/>
@@ -12,12 +12,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SoundConfig!$B$6:$C$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -32,6 +45,9 @@
   </si>
   <si>
     <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>string</t>
@@ -79,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1269,7 +1285,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1355,10 +1371,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
@@ -1385,14 +1401,14 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:26">
       <c r="A4" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
@@ -1419,16 +1435,16 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:26">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
@@ -1458,10 +1474,10 @@
         <v>1001</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="2:3">
@@ -1469,7 +1485,7 @@
         <v>1002</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="2:3">
@@ -1477,7 +1493,7 @@
         <v>1003</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="2:3">
@@ -1485,7 +1501,7 @@
         <v>1004</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="2:3">
@@ -1493,7 +1509,7 @@
         <v>1005</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="2:3">
@@ -1501,7 +1517,7 @@
         <v>1006</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
